--- a/Grating_custom.xlsx
+++ b/Grating_custom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
   <si>
     <t>pos</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>[250, 250]</t>
+  </si>
+  <si>
+    <t>[-3, -6]</t>
   </si>
   <si>
     <t>[30, 30]</t>
@@ -530,7 +533,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0.03</v>
@@ -539,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -547,7 +550,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0.03</v>
@@ -556,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -564,7 +567,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0.03</v>
@@ -573,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>90</v>
@@ -581,7 +584,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0.03</v>
@@ -590,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>135</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>0.03</v>
@@ -607,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>180</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0.03</v>
@@ -624,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>225</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>0.03</v>
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>270</v>
@@ -649,7 +652,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>0.03</v>
@@ -658,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>315</v>

--- a/Grating_custom.xlsx
+++ b/Grating_custom.xlsx
@@ -37,7 +37,7 @@
     <t>[250, 250]</t>
   </si>
   <si>
-    <t>[-3, -6]</t>
+    <t>[-40, 25]</t>
   </si>
   <si>
     <t>[30, 30]</t>
